--- a/biology/Zoologie/Aegithalos/Aegithalos.xlsx
+++ b/biology/Zoologie/Aegithalos/Aegithalos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegithalos est un genre de passereaux appartenant à la famille des Aegithalidae. Il regroupe dix espèces de mésanges ou orites.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aristote décrit dans son ouvrage Histoire des animaux plusieurs oiseaux sous le terme Aegithalos (en latin aegithus) qui se traduit probablement par « petit oiseau », peut-être même par « mésange »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aristote décrit dans son ouvrage Histoire des animaux plusieurs oiseaux sous le terme Aegithalos (en latin aegithus) qui se traduit probablement par « petit oiseau », peut-être même par « mésange ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre vit à l'état naturel en Asie[3],[4],[5],[6],[7],[8],[9],[10],[11],[12] et en Europe[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre vit à l'état naturel en Asie et en Europe.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste alphabétique des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>D'après la classification de référence du Congrès ornithologique international  (version 8.2, 2018)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence du Congrès ornithologique international  (version 8.2, 2018) :
 Aegithalos bonvaloti (Oustalet, 1892) — Mésange de Bonvalot, Orite de Bonvalot
 Aegithalos bonvaloti bonvaloti (Oustalet, 1892)
 Aegithalos bonvaloti obscuratus (Mayr, 1940)
@@ -641,9 +659,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2018, l'Orite pygmée (Aegithalos exilis) qui constituait auparavant le genre monotypique Psaltria a été rattachée à Aegithalos par la classification de référence du Congrès ornithologique international  (version 8.2, 2018)[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018, l'Orite pygmée (Aegithalos exilis) qui constituait auparavant le genre monotypique Psaltria a été rattachée à Aegithalos par la classification de référence du Congrès ornithologique international  (version 8.2, 2018).
 </t>
         </is>
       </c>
